--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPuls.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPuls.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPuls.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPuls.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>
